--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/brian_feurstein_student_htldornbirn_at/Documents/HTL Klassen/3aWI/SWP/Unity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D97BA061-E299-43B7-AB0A-B371C1B1D24B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B41120-393F-492B-859D-C364F359D0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Tutorials von Unity anschauen und Basics lernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement + Projektauftrag, PSP, </t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +233,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,8 +614,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <f ca="1">TODAY()</f>
-        <v>44260</v>
+        <v>44258</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -620,8 +623,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="5">
-        <f ca="1">TODAY()</f>
-        <v>44260</v>
+        <v>44258</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>6</v>
@@ -632,86 +634,205 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
+      <c r="E7" s="5">
+        <v>44260</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B41120-393F-492B-859D-C364F359D0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFEE9B-78A0-460F-902A-60D783926F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -63,6 +63,42 @@
   </si>
   <si>
     <t xml:space="preserve">Movement + Projektauftrag, PSP, </t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Movement + Animationen</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Gegner Animationen</t>
+  </si>
+  <si>
+    <t>Menü</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Gegner + BET</t>
+  </si>
+  <si>
+    <t>Leben + BET</t>
+  </si>
+  <si>
+    <t>Punkte +  BET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punkte  </t>
+  </si>
+  <si>
+    <t>0,5h</t>
+  </si>
+  <si>
+    <t>Kamera anpassung</t>
   </si>
 </sst>
 </file>
@@ -198,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,7 +270,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,7 +590,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,25 +607,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -641,7 +680,9 @@
       <c r="E7" s="5">
         <v>44260</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
@@ -655,9 +696,15 @@
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="5">
+        <v>44261</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -668,9 +715,15 @@
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="5">
+        <v>44264</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -681,9 +734,15 @@
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="5">
+        <v>44265</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -694,9 +753,15 @@
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="5">
+        <v>44267</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -704,11 +769,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="5">
+        <v>44271</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -716,11 +787,17 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="5">
+        <v>44272</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -728,11 +805,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="5">
+        <v>44274</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -740,11 +823,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="5">
+        <v>44278</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -752,11 +841,17 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="5">
+        <v>44279</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -764,11 +859,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="5">
+        <v>44281</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -776,10 +877,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -788,50 +889,50 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="3"/>
     </row>
   </sheetData>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFEE9B-78A0-460F-902A-60D783926F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE39AC5-9339-4F6A-B9DF-83AD363B0E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Kamera anpassung</t>
+  </si>
+  <si>
+    <t>Leben + Punkte</t>
   </si>
 </sst>
 </file>
@@ -258,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,9 +274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,7 +593,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,25 +610,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -756,7 +759,7 @@
       <c r="E11" s="5">
         <v>44267</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -879,9 +882,15 @@
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="5">
+        <v>44284</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE39AC5-9339-4F6A-B9DF-83AD363B0E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380BCD6-F520-460A-B8B8-14C9EAEA0E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Leben + Punkte</t>
+  </si>
+  <si>
+    <t>Level 2 (Map)</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Level 2 (Map + movement + Gegner)</t>
   </si>
 </sst>
 </file>
@@ -592,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,49 +909,85 @@
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="5">
+        <v>44292</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="5">
+        <v>44293</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="5">
+        <v>44295</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="5">
+        <v>44299</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="5">
+        <v>44300</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="5">
+        <v>44302</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380BCD6-F520-460A-B8B8-14C9EAEA0E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB099ADD-1F77-4BF6-B3AE-4CC1D16EE2C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB099ADD-1F77-4BF6-B3AE-4CC1D16EE2C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025D592-81C5-4AA0-88F8-F19068EC272C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -111,6 +111,57 @@
   </si>
   <si>
     <t>Level 2 (Map + movement + Gegner)</t>
+  </si>
+  <si>
+    <t>Tutorials + BET</t>
+  </si>
+  <si>
+    <t>Tutorials</t>
+  </si>
+  <si>
+    <t>BET</t>
+  </si>
+  <si>
+    <t>Map starten</t>
+  </si>
+  <si>
+    <t>Level 1 mit Tilesets ertellen</t>
+  </si>
+  <si>
+    <t>Level 1 Map erstellen</t>
+  </si>
+  <si>
+    <t>BET Pläne</t>
+  </si>
+  <si>
+    <t>Tilemaps mit Gridsystem für Map erstellen</t>
+  </si>
+  <si>
+    <t>Colliders</t>
+  </si>
+  <si>
+    <t>Colliders + BET</t>
+  </si>
+  <si>
+    <t>Movement Script verfeinern</t>
+  </si>
+  <si>
+    <t>Canvas + Textmeshpro</t>
+  </si>
+  <si>
+    <t>Textmeshpro Script</t>
+  </si>
+  <si>
+    <t>Script für Ziel</t>
+  </si>
+  <si>
+    <t>schwebende Platformen</t>
+  </si>
+  <si>
+    <t>Leiter script</t>
+  </si>
+  <si>
+    <t>Level fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -169,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,11 +293,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +367,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -602,7 +700,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,11 +725,11 @@
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="11" t="s">
         <v>1</v>
@@ -643,13 +741,13 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -685,9 +783,15 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="5">
+        <v>44260</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5">
         <v>44260</v>
@@ -704,9 +808,15 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="5">
+        <v>44261</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5">
         <v>44261</v>
@@ -723,9 +833,15 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="5">
+        <v>44264</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="5">
         <v>44264</v>
@@ -742,9 +858,15 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="5">
+        <v>44265</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5">
         <v>44265</v>
@@ -761,9 +883,15 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="5">
+        <v>44268</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5">
         <v>44267</v>
@@ -780,9 +908,15 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="5">
+        <v>44271</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="5">
         <v>44271</v>
       </c>
@@ -798,9 +932,15 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="5">
+        <v>44272</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="5">
         <v>44272</v>
       </c>
@@ -816,9 +956,15 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="5">
+        <v>44274</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="5">
         <v>44274</v>
       </c>
@@ -834,9 +980,15 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="5">
+        <v>44278</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="5">
         <v>44278</v>
       </c>
@@ -852,9 +1004,15 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="5">
+        <v>44279</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="5">
         <v>44279</v>
       </c>
@@ -870,9 +1028,15 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="5">
+        <v>44282</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="5">
         <v>44281</v>
       </c>
@@ -888,9 +1052,15 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="5">
+        <v>44285</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="5">
         <v>44284</v>
       </c>
@@ -906,9 +1076,15 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="5">
+        <v>44292</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="5">
         <v>44292</v>
       </c>
@@ -920,9 +1096,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="5">
+        <v>44293</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E20" s="5">
         <v>44293</v>
       </c>
@@ -934,9 +1116,15 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="5">
+        <v>44295</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="5">
         <v>44295</v>
       </c>
@@ -948,9 +1136,15 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="5">
+        <v>44299</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="5">
         <v>44299</v>
       </c>
@@ -962,9 +1156,15 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="5">
+        <v>44300</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E23" s="5">
         <v>44300</v>
       </c>
@@ -976,9 +1176,15 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="5">
+        <v>44302</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="5">
         <v>44302</v>
       </c>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025D592-81C5-4AA0-88F8-F19068EC272C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C17896-44E8-4CAB-91BB-D942C77DB3BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="11784" yWindow="3120" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Brian Feurstein</t>
   </si>
   <si>
-    <t>Zeitplan (BabyDrivers)</t>
-  </si>
-  <si>
     <t>Datum:</t>
   </si>
   <si>
@@ -62,15 +59,6 @@
     <t>Tutorials von Unity anschauen und Basics lernen</t>
   </si>
   <si>
-    <t xml:space="preserve">Movement + Projektauftrag, PSP, </t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>Movement + Animationen</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -83,36 +71,12 @@
     <t>Punkte</t>
   </si>
   <si>
-    <t>Gegner + BET</t>
-  </si>
-  <si>
-    <t>Leben + BET</t>
-  </si>
-  <si>
-    <t>Punkte +  BET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punkte  </t>
-  </si>
-  <si>
     <t>0,5h</t>
   </si>
   <si>
     <t>Kamera anpassung</t>
   </si>
   <si>
-    <t>Leben + Punkte</t>
-  </si>
-  <si>
-    <t>Level 2 (Map)</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>Level 2 (Map + movement + Gegner)</t>
-  </si>
-  <si>
     <t>Tutorials + BET</t>
   </si>
   <si>
@@ -162,13 +126,64 @@
   </si>
   <si>
     <t>Level fertiggestellt</t>
+  </si>
+  <si>
+    <t>Zeitplan (Jumalien)</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement </t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gegner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punkte </t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>1,5h</t>
+  </si>
+  <si>
+    <t>Level2 (Punkte)</t>
+  </si>
+  <si>
+    <t>Level2 (Gegner)</t>
+  </si>
+  <si>
+    <t>Level2 (movement)</t>
+  </si>
+  <si>
+    <t>Level2 (Map)</t>
+  </si>
+  <si>
+    <t>Level2 (Bugs)</t>
+  </si>
+  <si>
+    <t>Level2 (Gegner Animation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +214,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -220,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -324,11 +359,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,9 +410,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,22 +438,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -697,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="F27" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,17 +780,17 @@
     <col min="3" max="3" width="55.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="55.6640625" style="2" customWidth="1"/>
     <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
@@ -731,78 +801,80 @@
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44258</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="22">
+        <v>44258</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>44258</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44260</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="5">
+      <c r="E7" s="21">
         <v>44260</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -812,22 +884,22 @@
         <v>44261</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="5">
-        <v>44261</v>
+      <c r="E8" s="21">
+        <v>44260</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -837,22 +909,22 @@
         <v>44264</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="5">
-        <v>44264</v>
+      <c r="E9" s="21">
+        <v>44261</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="H9" s="23"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -862,22 +934,22 @@
         <v>44265</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5">
-        <v>44265</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>44261</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -887,22 +959,22 @@
         <v>44268</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="5">
-        <v>44267</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>6</v>
+      <c r="E11" s="21">
+        <v>44264</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -912,21 +984,21 @@
         <v>44271</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5">
-        <v>44271</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>44264</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -936,21 +1008,21 @@
         <v>44272</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5">
-        <v>44272</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="21">
+        <v>44265</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -960,21 +1032,21 @@
         <v>44274</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5">
-        <v>44274</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>44265</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -984,21 +1056,21 @@
         <v>44278</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5">
-        <v>44278</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="21">
+        <v>44267</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="H15" s="23"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1008,21 +1080,21 @@
         <v>44279</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5">
-        <v>44279</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="21">
+        <v>44271</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1031,22 +1103,22 @@
       <c r="A17" s="5">
         <v>44282</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>6</v>
+      <c r="B17" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5">
-        <v>44281</v>
+        <v>28</v>
+      </c>
+      <c r="E17" s="21">
+        <v>44272</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="H17" s="23"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1055,22 +1127,22 @@
       <c r="A18" s="5">
         <v>44285</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>6</v>
+      <c r="B18" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5">
-        <v>44284</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>44272</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="23"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1080,19 +1152,22 @@
         <v>44292</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5">
-        <v>44292</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="21">
+        <v>44274</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1100,106 +1175,280 @@
         <v>44293</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="21">
+        <v>44278</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5">
-        <v>44293</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>44295</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5">
+        <v>44278</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="5">
-        <v>44295</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44299</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="21">
+        <v>44279</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="5">
-        <v>44299</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>44300</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5">
-        <v>44300</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>44279</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>44302</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="21">
+        <v>44281</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="21">
+        <v>44284</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E26" s="21">
+        <v>44292</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E27" s="5">
+        <v>44292</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="5">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="21">
+        <v>44293</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E29" s="21">
+        <v>44295</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E30" s="5">
+        <v>44295</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E31" s="21">
+        <v>44299</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E32" s="21">
+        <v>44299</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="21">
+        <v>44299</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="21">
+        <v>44300</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="5">
+        <v>44300</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="21">
         <v>44302</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>25</v>
+      <c r="G36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="5">
+        <v>44302</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="5">
+        <v>44306</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="5">
+        <v>44307</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H5:H18"/>
+    <mergeCell ref="H19:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C17896-44E8-4CAB-91BB-D942C77DB3BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2DDA9-209C-4174-B008-437D67556B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11784" yWindow="3120" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="12816" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Gegner Animationen</t>
   </si>
   <si>
-    <t>Menü</t>
-  </si>
-  <si>
     <t>Punkte</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t xml:space="preserve">Movement </t>
   </si>
   <si>
-    <t>Animation</t>
-  </si>
-  <si>
     <t>Movement</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t xml:space="preserve">Punkte </t>
   </si>
   <si>
-    <t>Bugs</t>
-  </si>
-  <si>
     <t>1,5h</t>
   </si>
   <si>
@@ -173,17 +164,50 @@
     <t>Level2 (Map)</t>
   </si>
   <si>
-    <t>Level2 (Bugs)</t>
-  </si>
-  <si>
     <t>Level2 (Gegner Animation)</t>
+  </si>
+  <si>
+    <t>Spieler Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio </t>
+  </si>
+  <si>
+    <t>Menü (Design)</t>
+  </si>
+  <si>
+    <t>Menü (Entwicklung)</t>
+  </si>
+  <si>
+    <t>Item Entwicklung(counter)</t>
+  </si>
+  <si>
+    <t>Level2 (Item Design)</t>
+  </si>
+  <si>
+    <t>Level2 (Item Entwicklung)</t>
+  </si>
+  <si>
+    <t>Item Design</t>
+  </si>
+  <si>
+    <t>Level2 (Bugs finden)</t>
+  </si>
+  <si>
+    <t>Level2 (Bugs beheben)</t>
+  </si>
+  <si>
+    <t>Bugs beheben</t>
+  </si>
+  <si>
+    <t>Bugs finden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,13 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -255,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -379,11 +396,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +447,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,20 +471,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="F27" sqref="F26:F27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,25 +829,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -829,8 +871,8 @@
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>32</v>
+      <c r="H5" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -843,16 +885,16 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>44258</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -862,19 +904,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="21">
+      <c r="E7" s="23">
         <v>44260</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="21"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -887,19 +929,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="23">
+        <v>44260</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="21">
-        <v>44260</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -912,19 +954,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="21">
+      <c r="E9" s="23">
         <v>44261</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="23"/>
+      <c r="F9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -937,509 +979,617 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="5">
+      <c r="E10" s="25">
         <v>44261</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="F10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>44268</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21">
-        <v>44264</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="23"/>
+      <c r="E11" s="27">
+        <v>44262</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="21"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>44271</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5">
-        <v>44264</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="27">
+        <v>44262</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="21"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>44272</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>44268</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="21">
-        <v>44265</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="23">
+        <v>44264</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="21"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>44274</v>
+        <v>44271</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5">
-        <v>44265</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="27">
+        <v>44264</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="21"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>44278</v>
+        <v>44272</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="21">
-        <v>44267</v>
+        <v>18</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44265</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="21"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>44279</v>
+        <v>44274</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="21">
-        <v>44271</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="27">
+        <v>44265</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="21"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>44282</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>5</v>
+        <v>44278</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="21">
-        <v>44272</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="23">
+        <v>44267</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>44285</v>
-      </c>
-      <c r="B18" s="12" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5">
-        <v>44272</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="E18" s="27">
+        <v>44267</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>44292</v>
-      </c>
-      <c r="B19" s="8" t="s">
+        <v>44282</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="21">
-        <v>44274</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E19" s="23">
+        <v>44271</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>44293</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>44285</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="21">
-        <v>44278</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="E20" s="23">
+        <v>44272</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>44295</v>
+        <v>44292</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5">
-        <v>44278</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="E21" s="27">
+        <v>44272</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>44299</v>
+        <v>44293</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="21">
-        <v>44279</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="E22" s="23">
+        <v>44274</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>44300</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5">
-        <v>44279</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="24"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="27">
+        <v>44274</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
+        <v>44295</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="23">
+        <v>44278</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44299</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="27">
+        <v>44278</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44300</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="23">
+        <v>44279</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>44302</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="B27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="27">
+        <v>44279</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="23">
         <v>44281</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E29" s="27">
+        <v>44282</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E30" s="23">
+        <v>44284</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="21">
-        <v>44284</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="G30" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E31" s="23">
+        <v>44292</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E26" s="21">
+      <c r="G31" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E32" s="27">
         <v>44292</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="23">
+        <v>44293</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="23">
+        <v>44295</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="27">
+        <v>44295</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="23">
+        <v>44299</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="23">
+        <v>44299</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E27" s="5">
-        <v>44292</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="23">
+        <v>44299</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="23">
+        <v>44300</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E28" s="21">
-        <v>44293</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E29" s="21">
-        <v>44295</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="5">
-        <v>44295</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="2" t="s">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="25">
+        <v>44300</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="21">
-        <v>44299</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="21">
-        <v>44299</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="21">
-        <v>44299</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="21">
-        <v>44300</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="5">
-        <v>44300</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="21">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="27">
+        <v>44301</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="27">
+        <v>44301</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="23">
         <v>44302</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="5">
+      <c r="F43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="27">
         <v>44302</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="5">
+      <c r="F44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="27">
+        <v>44303</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="27">
         <v>44306</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="5">
+      <c r="F46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="27">
         <v>44307</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>16</v>
+      <c r="F47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1447,8 +1597,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H5:H18"/>
-    <mergeCell ref="H19:H26"/>
+    <mergeCell ref="H5:H20"/>
+    <mergeCell ref="H21:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2DDA9-209C-4174-B008-437D67556B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6805A-7284-42E4-985B-EA77F14A40A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12816" yWindow="2160" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-2580" yWindow="1752" windowWidth="7656" windowHeight="6996" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -74,57 +74,24 @@
     <t>Kamera anpassung</t>
   </si>
   <si>
-    <t>Tutorials + BET</t>
-  </si>
-  <si>
-    <t>Tutorials</t>
-  </si>
-  <si>
     <t>BET</t>
   </si>
   <si>
     <t>Map starten</t>
   </si>
   <si>
-    <t>Level 1 mit Tilesets ertellen</t>
-  </si>
-  <si>
-    <t>Level 1 Map erstellen</t>
-  </si>
-  <si>
-    <t>BET Pläne</t>
-  </si>
-  <si>
     <t>Tilemaps mit Gridsystem für Map erstellen</t>
   </si>
   <si>
-    <t>Colliders</t>
-  </si>
-  <si>
-    <t>Colliders + BET</t>
-  </si>
-  <si>
     <t>Movement Script verfeinern</t>
   </si>
   <si>
     <t>Canvas + Textmeshpro</t>
   </si>
   <si>
-    <t>Textmeshpro Script</t>
-  </si>
-  <si>
     <t>Script für Ziel</t>
   </si>
   <si>
-    <t>schwebende Platformen</t>
-  </si>
-  <si>
-    <t>Leiter script</t>
-  </si>
-  <si>
-    <t>Level fertiggestellt</t>
-  </si>
-  <si>
     <t>Zeitplan (Jumalien)</t>
   </si>
   <si>
@@ -201,6 +168,63 @@
   </si>
   <si>
     <t>Bugs finden</t>
+  </si>
+  <si>
+    <t>Map designen</t>
+  </si>
+  <si>
+    <t>Tilesets für Map erstellen</t>
+  </si>
+  <si>
+    <t>Map gestallten</t>
+  </si>
+  <si>
+    <t>Collider Map</t>
+  </si>
+  <si>
+    <t>Collider Leiter + Design</t>
+  </si>
+  <si>
+    <t>schwebende Platform Design + Collider</t>
+  </si>
+  <si>
+    <t>Script für schwebende Platform</t>
+  </si>
+  <si>
+    <t>Leiter Design + Collider</t>
+  </si>
+  <si>
+    <t>Leiter Script</t>
+  </si>
+  <si>
+    <t>Player anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h </t>
+  </si>
+  <si>
+    <t>Textmeshpro Script schreiben</t>
+  </si>
+  <si>
+    <t>Ziel gestallten + Collider</t>
+  </si>
+  <si>
+    <t>Level 1 fertigstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BET </t>
+  </si>
+  <si>
+    <t>Pause Menü Design</t>
+  </si>
+  <si>
+    <t>Pause Menü Script</t>
+  </si>
+  <si>
+    <t>Hindernisse</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -413,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,9 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -436,7 +457,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,10 +466,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,24 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,767 +862,905 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>31</v>
+      <c r="H5" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44258</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="11">
         <v>44258</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44260</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="B7" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="23">
+      <c r="E7" s="11">
         <v>44260</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="21"/>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="30"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>44261</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
+      <c r="A8" s="4">
+        <v>44260</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="23">
+      <c r="E8" s="11">
         <v>44260</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21"/>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>44264</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
+      <c r="A9" s="4">
+        <v>44261</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="23">
+      <c r="E9" s="11">
         <v>44261</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="21"/>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>44265</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
+      <c r="A10" s="4">
+        <v>44264</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="25">
+      <c r="E10" s="13">
         <v>44261</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="21"/>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4">
+        <v>44265</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="27">
+      <c r="E11" s="15">
         <v>44262</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="21"/>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4">
+        <v>44268</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="27">
+      <c r="E12" s="15">
         <v>44262</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="21"/>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44268</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
+      <c r="B13" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="23">
+      <c r="E13" s="11">
         <v>44264</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="21"/>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>44271</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="27">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15">
         <v>44264</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="21"/>
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44272</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="23">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11">
         <v>44265</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="21"/>
+      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="30"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>44274</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="27">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15">
         <v>44265</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>44278</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>8</v>
+      <c r="B17" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="23">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11">
         <v>44267</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>44279</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>5</v>
+      <c r="A18" s="4">
+        <v>44278</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="27">
+        <v>62</v>
+      </c>
+      <c r="E18" s="15">
         <v>44267</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="21"/>
+      <c r="F18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>44282</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>5</v>
+      <c r="A19" s="4">
+        <v>44279</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="23">
+        <v>49</v>
+      </c>
+      <c r="E19" s="11">
         <v>44271</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>44285</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="4">
+        <v>44279</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11">
+        <v>44272</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23">
-        <v>44272</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="21"/>
+      <c r="G20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="30"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
+        <v>44282</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15">
+        <v>44272</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>44282</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="11">
+        <v>44274</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>44285</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="15">
+        <v>44274</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>44285</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="11">
+        <v>44278</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>44292</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="15">
+        <v>44278</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>44292</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="11">
+        <v>44279</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>44293</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="15">
+        <v>44279</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>44295</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="11">
+        <v>44281</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="15">
+        <v>44282</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="27">
-        <v>44272</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="G29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="31"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="11">
+        <v>44284</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>44300</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="11">
+        <v>44292</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>44302</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="15">
+        <v>44292</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>44306</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="11">
+        <v>44293</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>44307</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="11">
+        <v>44295</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>44307</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="15">
+        <v>44295</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="11">
+        <v>44299</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="11">
+        <v>44299</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="11">
+        <v>44299</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="E39" s="11">
+        <v>44300</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="E40" s="13">
+        <v>44300</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>44293</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="23">
-        <v>44274</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="27">
-        <v>44274</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>44295</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="23">
-        <v>44278</v>
-      </c>
-      <c r="F24" s="9" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="E41" s="15">
+        <v>44301</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>44299</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="G41" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="E42" s="15">
+        <v>44301</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="E43" s="11">
+        <v>44302</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="E44" s="15">
+        <v>44302</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="E45" s="15">
+        <v>44303</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="15">
+        <v>44306</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="15">
+        <v>44307</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="27">
-        <v>44278</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>44300</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="23">
-        <v>44279</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>44302</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="27">
-        <v>44279</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E28" s="23">
-        <v>44281</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E29" s="27">
-        <v>44282</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="23">
-        <v>44284</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="23">
-        <v>44292</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="27">
-        <v>44292</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="23">
-        <v>44293</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="23">
-        <v>44295</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="27">
-        <v>44295</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="23">
-        <v>44299</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="23">
-        <v>44299</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="23">
-        <v>44299</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="23">
-        <v>44300</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="25">
-        <v>44300</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="27">
-        <v>44301</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E42" s="27">
-        <v>44301</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E43" s="23">
-        <v>44302</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E44" s="27">
-        <v>44302</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E45" s="27">
-        <v>44303</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="27">
-        <v>44306</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="27">
-        <v>44307</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>15</v>
+      <c r="G47" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6805A-7284-42E4-985B-EA77F14A40A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C3CEA-10F7-4824-906A-5EFA5B808C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2580" yWindow="1752" windowWidth="7656" windowHeight="6996" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -296,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -404,32 +404,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -437,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,19 +442,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,10 +489,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -842,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,25 +835,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -904,7 +877,7 @@
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -912,44 +885,44 @@
       <c r="A6" s="4">
         <v>44258</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>44258</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44260</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>44260</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -958,23 +931,23 @@
       <c r="A8" s="4">
         <v>44260</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>44260</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -983,23 +956,23 @@
       <c r="A9" s="4">
         <v>44261</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>44261</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1008,23 +981,23 @@
       <c r="A10" s="4">
         <v>44264</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>44261</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1033,23 +1006,23 @@
       <c r="A11" s="4">
         <v>44265</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>44262</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1058,23 +1031,23 @@
       <c r="A12" s="4">
         <v>44268</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>44262</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1083,23 +1056,23 @@
       <c r="A13" s="4">
         <v>44268</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>44264</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1108,22 +1081,22 @@
       <c r="A14" s="4">
         <v>44271</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>44264</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="30"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1132,22 +1105,22 @@
       <c r="A15" s="4">
         <v>44272</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>44265</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1156,22 +1129,22 @@
       <c r="A16" s="4">
         <v>44274</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>44265</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1180,22 +1153,22 @@
       <c r="A17" s="4">
         <v>44278</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>44267</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1204,22 +1177,22 @@
       <c r="A18" s="4">
         <v>44278</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>44267</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1228,22 +1201,22 @@
       <c r="A19" s="4">
         <v>44279</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>44271</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1252,22 +1225,22 @@
       <c r="A20" s="4">
         <v>44279</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>44272</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="30"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1276,22 +1249,22 @@
       <c r="A21" s="4">
         <v>44282</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>44272</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1299,187 +1272,187 @@
       <c r="A22" s="4">
         <v>44282</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>44274</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44285</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>44274</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44285</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>44278</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44292</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>44278</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="31"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44292</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>44279</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44293</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>44279</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44295</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>44281</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="31"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44299</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>44282</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="31"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44299</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>44284</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1487,19 +1460,19 @@
       <c r="A31" s="4">
         <v>44300</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>44292</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1507,19 +1480,19 @@
       <c r="A32" s="4">
         <v>44302</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>44292</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1527,19 +1500,19 @@
       <c r="A33" s="4">
         <v>44306</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>44293</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1547,19 +1520,19 @@
       <c r="A34" s="4">
         <v>44307</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>44295</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1567,19 +1540,19 @@
       <c r="A35" s="4">
         <v>44307</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>44295</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1587,19 +1560,19 @@
       <c r="A36" s="4">
         <v>44312</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>44299</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1607,19 +1580,19 @@
       <c r="A37" s="4">
         <v>44312</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>44299</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1627,139 +1600,194 @@
       <c r="A38" s="4">
         <v>44312</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>44299</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-      <c r="E39" s="11">
+      <c r="A39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="E39" s="10">
         <v>44300</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="E40" s="13">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="E40" s="12">
         <v>44300</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="14" t="s">
+      <c r="F40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="E41" s="15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="E41" s="12">
         <v>44301</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="E42" s="15">
+      <c r="A42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="E42" s="12">
         <v>44301</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="E43" s="11">
+      <c r="A43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="E43" s="10">
         <v>44302</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="E44" s="12">
         <v>44302</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="E45" s="15">
+      <c r="A45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="E45" s="12">
         <v>44303</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="15">
+      <c r="E46" s="12">
         <v>44306</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="15">
+      <c r="E47" s="12">
         <v>44307</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <v>44309</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>44313</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="4">
+        <v>44314</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="4">
+        <v>44320</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="4">
+        <v>44321</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C3CEA-10F7-4824-906A-5EFA5B808C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43705067-61C2-4913-94EA-A145ECA19B1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -468,6 +468,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,9 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -815,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,25 +835,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -877,7 +877,7 @@
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       <c r="E30" s="10">
         <v>44284</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -1722,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1743,8 +1743,8 @@
       <c r="F48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>13</v>
+      <c r="G48" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
@@ -1754,8 +1754,8 @@
       <c r="F49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>13</v>
+      <c r="G49" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.3">
@@ -1765,13 +1765,13 @@
       <c r="F50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>13</v>
+      <c r="G50" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="4">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>8</v>
@@ -1782,12 +1782,45 @@
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="4">
+        <v>44320</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="4">
         <v>44321</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="12">
+        <v>44323</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="12">
+        <v>44327</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43705067-61C2-4913-94EA-A145ECA19B1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFBB784-D388-4B82-A001-77D28EB32A05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -225,6 +225,39 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>Powerup design</t>
+  </si>
+  <si>
+    <t>Powerup Script</t>
+  </si>
+  <si>
+    <t>Powerup</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
+  </si>
+  <si>
+    <t>bugs fixen, spiel fertigstellen, power up</t>
+  </si>
+  <si>
+    <t>slowness poison</t>
+  </si>
+  <si>
+    <t>präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h </t>
+  </si>
+  <si>
+    <t>Präsentation, OSP, UNITY</t>
+  </si>
+  <si>
+    <t>Präsentation, Unity, BET</t>
+  </si>
+  <si>
+    <t>Präsentation, Zeitplan</t>
   </si>
 </sst>
 </file>
@@ -413,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,6 +533,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +854,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,9 +1653,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="14">
+        <v>44313</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="E39" s="10">
         <v>44300</v>
       </c>
@@ -1631,9 +1673,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="14">
+        <v>44313</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="E40" s="12">
         <v>44300</v>
       </c>
@@ -1645,9 +1693,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="14">
+        <v>44320</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="E41" s="12">
         <v>44301</v>
       </c>
@@ -1659,9 +1713,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="14">
+        <v>44328</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="E42" s="12">
         <v>44301</v>
       </c>
@@ -1673,9 +1733,15 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="14">
+        <v>44329</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="E43" s="10">
         <v>44302</v>
       </c>
@@ -1687,9 +1753,15 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="14">
+        <v>44329</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E44" s="12">
         <v>44302</v>
       </c>
@@ -1701,9 +1773,15 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="14">
+        <v>44334</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="E45" s="12">
         <v>44303</v>
       </c>
@@ -1715,6 +1793,15 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>44335</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E46" s="12">
         <v>44306</v>
       </c>
@@ -1726,6 +1813,15 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>44337</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E47" s="12">
         <v>44307</v>
       </c>
@@ -1737,6 +1833,15 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>44341</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E48" s="4">
         <v>44309</v>
       </c>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFBB784-D388-4B82-A001-77D28EB32A05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F909E1-3CD9-48C4-9D32-0B260B751E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>Zeitplan (Jumalien)</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 2</t>
   </si>
   <si>
     <t xml:space="preserve">Movement </t>
@@ -264,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,13 +295,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -437,7 +424,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -446,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,14 +476,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,6 +485,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,17 +509,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,30 +849,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -913,15 +891,13 @@
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44258</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -936,13 +912,12 @@
       <c r="G6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44260</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -956,9 +931,8 @@
         <v>8</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="29"/>
+        <v>20</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -967,7 +941,7 @@
       <c r="A8" s="4">
         <v>44260</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -983,7 +957,6 @@
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -992,7 +965,7 @@
       <c r="A9" s="4">
         <v>44261</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1006,9 +979,8 @@
         <v>5</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="29"/>
+        <v>21</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1017,7 +989,7 @@
       <c r="A10" s="4">
         <v>44264</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1031,9 +1003,9 @@
         <v>8</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="29"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1042,7 +1014,7 @@
       <c r="A11" s="4">
         <v>44265</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1056,9 +1028,8 @@
         <v>5</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="29"/>
+        <v>35</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1067,7 +1038,7 @@
       <c r="A12" s="4">
         <v>44268</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1081,9 +1052,8 @@
         <v>11</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="29"/>
+        <v>38</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1092,11 +1062,11 @@
       <c r="A13" s="4">
         <v>44268</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="10">
@@ -1106,9 +1076,8 @@
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="29"/>
+        <v>22</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1117,7 +1086,7 @@
       <c r="A14" s="4">
         <v>44271</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1132,7 +1101,6 @@
       <c r="G14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="29"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1141,11 +1109,11 @@
       <c r="A15" s="4">
         <v>44272</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="10">
         <v>44265</v>
@@ -1154,9 +1122,9 @@
         <v>8</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1165,11 +1133,11 @@
       <c r="A16" s="4">
         <v>44274</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="12">
         <v>44265</v>
@@ -1180,7 +1148,6 @@
       <c r="G16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="29"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1189,11 +1156,11 @@
       <c r="A17" s="4">
         <v>44278</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="10">
         <v>44267</v>
@@ -1204,7 +1171,6 @@
       <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="29"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1213,11 +1179,11 @@
       <c r="A18" s="4">
         <v>44278</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="12">
         <v>44267</v>
@@ -1226,9 +1192,8 @@
         <v>8</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="29"/>
+        <v>34</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1237,11 +1202,11 @@
       <c r="A19" s="4">
         <v>44279</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="10">
         <v>44271</v>
@@ -1252,7 +1217,6 @@
       <c r="G19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="29"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1261,7 +1225,7 @@
       <c r="A20" s="4">
         <v>44279</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1274,9 +1238,9 @@
         <v>5</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1285,11 +1249,11 @@
       <c r="A21" s="4">
         <v>44282</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="12">
         <v>44272</v>
@@ -1299,20 +1263,17 @@
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44282</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="10">
         <v>44274</v>
@@ -1321,19 +1282,18 @@
         <v>8</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="30"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44285</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12">
         <v>44274</v>
@@ -1342,19 +1302,18 @@
         <v>8</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="30"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44285</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="10">
         <v>44278</v>
@@ -1363,15 +1322,14 @@
         <v>11</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="30"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44292</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1386,17 +1344,17 @@
       <c r="G25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44292</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>63</v>
+      <c r="B26" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="10">
         <v>44279</v>
@@ -1405,16 +1363,15 @@
         <v>8</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="30"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44293</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>55</v>
+      <c r="B27" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>17</v>
@@ -1426,19 +1383,18 @@
         <v>11</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="30"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44295</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="10">
         <v>44281</v>
@@ -1449,17 +1405,16 @@
       <c r="G28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44299</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="12">
         <v>44282</v>
@@ -1468,15 +1423,14 @@
         <v>5</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="30"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44299</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1485,18 +1439,18 @@
       <c r="E30" s="10">
         <v>44284</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44300</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1506,21 +1460,21 @@
         <v>44292</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44302</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="12">
         <v>44292</v>
@@ -1529,18 +1483,18 @@
         <v>11</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44306</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="10">
         <v>44293</v>
@@ -1549,18 +1503,18 @@
         <v>5</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44307</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="10">
         <v>44295</v>
@@ -1569,18 +1523,18 @@
         <v>5</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44307</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E35" s="12">
         <v>44295</v>
@@ -1589,14 +1543,14 @@
         <v>11</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44312</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1609,18 +1563,18 @@
         <v>11</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44312</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E37" s="10">
         <v>44299</v>
@@ -1629,18 +1583,18 @@
         <v>11</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44312</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="10">
         <v>44299</v>
@@ -1649,18 +1603,18 @@
         <v>8</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="4">
         <v>44313</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="7">
         <v>0.5</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>64</v>
+      <c r="C39" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E39" s="10">
         <v>44300</v>
@@ -1669,18 +1623,18 @@
         <v>8</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40" s="4">
         <v>44313</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>65</v>
+      <c r="C40" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E40" s="12">
         <v>44300</v>
@@ -1689,18 +1643,18 @@
         <v>8</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41" s="4">
         <v>44320</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>66</v>
+      <c r="B41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E41" s="12">
         <v>44301</v>
@@ -1709,18 +1663,18 @@
         <v>11</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="4">
         <v>44328</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>67</v>
+      <c r="B42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E42" s="12">
         <v>44301</v>
@@ -1729,18 +1683,18 @@
         <v>11</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+      <c r="A43" s="4">
         <v>44329</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>68</v>
+      <c r="B43" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E43" s="10">
         <v>44302</v>
@@ -1749,18 +1703,18 @@
         <v>11</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="4">
         <v>44329</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>69</v>
+      <c r="B44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E44" s="12">
         <v>44302</v>
@@ -1769,18 +1723,18 @@
         <v>11</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="A45" s="4">
         <v>44334</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>70</v>
+      <c r="B45" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E45" s="12">
         <v>44303</v>
@@ -1789,18 +1743,18 @@
         <v>8</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
+      <c r="A46" s="4">
         <v>44335</v>
       </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>72</v>
+      <c r="B46" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E46" s="12">
         <v>44306</v>
@@ -1809,18 +1763,18 @@
         <v>8</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
+      <c r="A47" s="4">
         <v>44337</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>73</v>
+      <c r="B47" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E47" s="12">
         <v>44307</v>
@@ -1829,18 +1783,18 @@
         <v>5</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
+      <c r="A48" s="4">
         <v>44341</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>74</v>
+      <c r="B48" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E48" s="4">
         <v>44309</v>
@@ -1849,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
@@ -1860,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.3">
@@ -1871,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.3">
@@ -1929,13 +1883,60 @@
         <v>13</v>
       </c>
     </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="17">
+        <v>44328</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="17">
+        <v>44334</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="17">
+        <v>44335</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="17">
+        <v>44337</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H5:H20"/>
-    <mergeCell ref="H21:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F909E1-3CD9-48C4-9D32-0B260B751E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21CB86-4F50-452A-84C8-A6D6FAAEB73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -252,6 +252,21 @@
   </si>
   <si>
     <t>Präsentation, Zeitplan</t>
+  </si>
+  <si>
+    <t>Level1 (Bugs finden)</t>
+  </si>
+  <si>
+    <t>Level1 (Bugs beheben)</t>
+  </si>
+  <si>
+    <t>BET/Projektabgabe</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Projektabgabe</t>
   </si>
 </sst>
 </file>
@@ -316,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -420,22 +435,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,8 +489,8 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,12 +511,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -829,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1003,6 @@
       <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1124,7 +1121,6 @@
       <c r="G15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1240,7 +1236,6 @@
       <c r="G20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1344,7 +1339,6 @@
       <c r="G25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1630,7 +1624,7 @@
       <c r="A40" s="4">
         <v>44313</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -1650,7 +1644,7 @@
       <c r="A41" s="4">
         <v>44320</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -1670,7 +1664,7 @@
       <c r="A42" s="4">
         <v>44328</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -1690,7 +1684,7 @@
       <c r="A43" s="4">
         <v>44329</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1710,7 +1704,7 @@
       <c r="A44" s="4">
         <v>44329</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -1723,14 +1717,14 @@
         <v>11</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44334</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -1743,14 +1737,14 @@
         <v>8</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>44335</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -1763,14 +1757,14 @@
         <v>8</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>44337</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -1783,14 +1777,14 @@
         <v>5</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>44341</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -1803,10 +1797,19 @@
         <v>8</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>44344</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E49" s="4">
         <v>44313</v>
       </c>
@@ -1814,10 +1817,19 @@
         <v>8</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>44348</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E50" s="4">
         <v>44314</v>
       </c>
@@ -1825,10 +1837,10 @@
         <v>5</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E51" s="4">
         <v>44316</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52" s="4">
         <v>44320</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E53" s="4">
         <v>44321</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E54" s="12">
         <v>44323</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E55" s="12">
         <v>44327</v>
       </c>
@@ -1883,54 +1895,108 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E56" s="17">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E56" s="4">
         <v>44328</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E57" s="17">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="4">
         <v>44334</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E58" s="17">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="4">
         <v>44335</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E59" s="17">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="4">
         <v>44337</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="4">
+        <v>44341</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G60" s="11" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E61" s="4">
+        <v>44344</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E62" s="4">
+        <v>44348</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G66"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G67"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G68"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G69"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G70"/>
+      <c r="H70" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21CB86-4F50-452A-84C8-A6D6FAAEB73A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B471B-5507-412C-B794-A465C7B4ADA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="12744" yWindow="3828" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -95,24 +95,9 @@
     <t>Zeitplan (Jumalien)</t>
   </si>
   <si>
-    <t xml:space="preserve">Movement </t>
-  </si>
-  <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gegner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leben </t>
-  </si>
-  <si>
     <t xml:space="preserve">Punkte </t>
   </si>
   <si>
-    <t>1,5h</t>
-  </si>
-  <si>
     <t>Level2 (Punkte)</t>
   </si>
   <si>
@@ -267,12 +252,36 @@
   </si>
   <si>
     <t>Projektabgabe</t>
+  </si>
+  <si>
+    <t>Player (Design)</t>
+  </si>
+  <si>
+    <t>Movement (Entwicklung)</t>
+  </si>
+  <si>
+    <t>Gegner (Design)</t>
+  </si>
+  <si>
+    <t>Gegner (Entwicklung)</t>
+  </si>
+  <si>
+    <t>Leben (Design)</t>
+  </si>
+  <si>
+    <t>Leben (Entwicklung)</t>
+  </si>
+  <si>
+    <t>Level2 (Gegner Entwicklung)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="General&quot;h&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,18 +486,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +516,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -827,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,25 +860,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -890,12 +903,13 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44258</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -904,8 +918,8 @@
       <c r="E6" s="10">
         <v>44258</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>5</v>
+      <c r="F6" s="24">
+        <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>7</v>
@@ -915,7 +929,7 @@
       <c r="A7" s="4">
         <v>44260</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -925,13 +939,13 @@
       <c r="E7" s="10">
         <v>44260</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
+      <c r="F7" s="24">
+        <v>0.5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
@@ -939,7 +953,7 @@
       <c r="A8" s="4">
         <v>44260</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -949,12 +963,13 @@
       <c r="E8" s="10">
         <v>44260</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>8</v>
+      <c r="F8" s="24">
+        <v>1.5</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -963,7 +978,7 @@
       <c r="A9" s="4">
         <v>44261</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -973,13 +988,13 @@
       <c r="E9" s="10">
         <v>44261</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>5</v>
+      <c r="F9" s="24">
+        <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
@@ -987,7 +1002,7 @@
       <c r="A10" s="4">
         <v>44264</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -997,11 +1012,11 @@
       <c r="E10" s="12">
         <v>44261</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
+      <c r="F10" s="24">
+        <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1011,7 +1026,7 @@
       <c r="A11" s="4">
         <v>44265</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1021,11 +1036,11 @@
       <c r="E11" s="12">
         <v>44262</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>5</v>
+      <c r="F11" s="24">
+        <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1035,7 +1050,7 @@
       <c r="A12" s="4">
         <v>44268</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1045,11 +1060,11 @@
       <c r="E12" s="12">
         <v>44262</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
+      <c r="F12" s="24">
+        <v>0.5</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1059,21 +1074,21 @@
       <c r="A13" s="4">
         <v>44268</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="10">
         <v>44264</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>8</v>
+      <c r="F13" s="24">
+        <v>0.5</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1083,7 +1098,7 @@
       <c r="A14" s="4">
         <v>44271</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1092,8 +1107,8 @@
       <c r="E14" s="12">
         <v>44264</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>8</v>
+      <c r="F14" s="24">
+        <v>1.5</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>13</v>
@@ -1106,20 +1121,20 @@
       <c r="A15" s="4">
         <v>44272</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10">
         <v>44265</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>8</v>
+      <c r="F15" s="24">
+        <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1129,17 +1144,17 @@
       <c r="A16" s="4">
         <v>44274</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" s="12">
         <v>44265</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
+      <c r="F16" s="24">
+        <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>13</v>
@@ -1152,17 +1167,17 @@
       <c r="A17" s="4">
         <v>44278</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="10">
         <v>44267</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>8</v>
+      <c r="F17" s="24">
+        <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>12</v>
@@ -1175,20 +1190,20 @@
       <c r="A18" s="4">
         <v>44278</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E18" s="12">
         <v>44267</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>8</v>
+      <c r="F18" s="24">
+        <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1198,17 +1213,17 @@
       <c r="A19" s="4">
         <v>44279</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" s="10">
         <v>44271</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>8</v>
+      <c r="F19" s="24">
+        <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>9</v>
@@ -1218,23 +1233,17 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>44279</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
       <c r="E20" s="10">
         <v>44272</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>5</v>
+      <c r="F20" s="24">
+        <v>0.5</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1242,621 +1251,633 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>44282</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="12">
+        <v>13</v>
+      </c>
+      <c r="E21" s="10">
         <v>44272</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>8</v>
+      <c r="F21" s="24">
+        <v>1.5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44282</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="10">
-        <v>44274</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44272</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>44285</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>44282</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="12">
+        <v>44</v>
+      </c>
+      <c r="E23" s="10">
         <v>44274</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>42</v>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44285</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>5</v>
+      <c r="B24" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="10">
-        <v>44278</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44274</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>44292</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>8</v>
+        <v>44285</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="12">
+        <v>46</v>
+      </c>
+      <c r="E25" s="10">
         <v>44278</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
+      <c r="F25" s="24">
+        <v>0.5</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44292</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>61</v>
+      <c r="B26" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="10">
-        <v>44279</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="12">
+        <v>44278</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.5</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>44293</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>53</v>
+        <v>44292</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="12">
+        <v>47</v>
+      </c>
+      <c r="E27" s="10">
         <v>44279</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
+      <c r="F27" s="24">
+        <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>44295</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>44293</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="10">
-        <v>44281</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="12">
+        <v>44279</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.5</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>44299</v>
+        <v>44295</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="12">
-        <v>44282</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="E29" s="10">
+        <v>44281</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44299</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>5</v>
+      <c r="B30" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="10">
-        <v>44284</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="E30" s="12">
+        <v>44282</v>
+      </c>
+      <c r="F30" s="24">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>44300</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>8</v>
+        <v>44299</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E31" s="10">
-        <v>44292</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>44284</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.5</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>44302</v>
-      </c>
-      <c r="B32" s="14" t="s">
+        <v>44300</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="12">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10">
         <v>44292</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
+      <c r="F32" s="24">
+        <v>1.5</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>44306</v>
-      </c>
-      <c r="B33" s="14" t="s">
+        <v>44302</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="10">
-        <v>44293</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44292</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0.5</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>44307</v>
-      </c>
-      <c r="B34" s="15" t="s">
+        <v>44306</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E34" s="10">
-        <v>44295</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>5</v>
+        <v>44293</v>
+      </c>
+      <c r="F34" s="24">
+        <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44307</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="12">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10">
         <v>44295</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
+      <c r="F35" s="24">
+        <v>2</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>44312</v>
+        <v>44307</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="10">
-        <v>44299</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="E36" s="12">
+        <v>44295</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.5</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44312</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>8</v>
+      <c r="B37" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E37" s="10">
         <v>44299</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
+      <c r="F37" s="24">
+        <v>0.5</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44312</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E38" s="10">
         <v>44299</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>8</v>
+      <c r="F38" s="24">
+        <v>0.5</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>44313</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.5</v>
+        <v>44312</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E39" s="10">
-        <v>44300</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>8</v>
+        <v>44299</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>44313</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>11</v>
+      <c r="B40" s="7">
+        <v>0.5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="12">
+        <v>57</v>
+      </c>
+      <c r="E40" s="10">
         <v>44300</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>8</v>
+      <c r="F40" s="24">
+        <v>1</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>44320</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>8</v>
+        <v>44313</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E41" s="12">
-        <v>44301</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>44300</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>44328</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>5</v>
+        <v>44320</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E42" s="12">
         <v>44301</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>11</v>
+      <c r="F42" s="24">
+        <v>0.5</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>44329</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>8</v>
+        <v>44328</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="10">
-        <v>44302</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="E43" s="12">
+        <v>44301</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.5</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>44329</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="12">
+        <v>61</v>
+      </c>
+      <c r="E44" s="10">
         <v>44302</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>11</v>
+      <c r="F44" s="24">
+        <v>0.5</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44334</v>
-      </c>
-      <c r="B45" s="17" t="s">
+        <v>44329</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="12">
+        <v>44302</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="E45" s="12">
-        <v>44303</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44335</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>69</v>
+        <v>44334</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E46" s="12">
-        <v>44306</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>8</v>
+        <v>44303</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>44337</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>5</v>
+        <v>44335</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E47" s="12">
-        <v>44307</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>5</v>
+        <v>44306</v>
+      </c>
+      <c r="F47" s="24">
+        <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>44341</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>8</v>
+        <v>44337</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="4">
-        <v>44309</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="E48" s="12">
+        <v>44307</v>
+      </c>
+      <c r="F48" s="24">
+        <v>2</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>44344</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>5</v>
+        <v>44341</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E49" s="4">
-        <v>44313</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>8</v>
+        <v>44309</v>
+      </c>
+      <c r="F49" s="24">
+        <v>1</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
+        <v>44344</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="4">
+        <v>44313</v>
+      </c>
+      <c r="F50" s="24">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>44348</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="B51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="4">
         <v>44314</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E51" s="4">
-        <v>44316</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>13</v>
+      <c r="F51" s="24">
+        <v>2</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52" s="4">
-        <v>44320</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>8</v>
+        <v>44316</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>13</v>
@@ -1864,139 +1885,151 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E53" s="4">
-        <v>44321</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>5</v>
+        <v>44320</v>
+      </c>
+      <c r="F53" s="24">
+        <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E54" s="12">
-        <v>44323</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="E54" s="4">
+        <v>44321</v>
+      </c>
+      <c r="F54" s="24">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E55" s="12">
-        <v>44327</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>8</v>
+        <v>44323</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.5</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E56" s="4">
-        <v>44328</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>5</v>
+      <c r="E56" s="12">
+        <v>44327</v>
+      </c>
+      <c r="F56" s="24">
+        <v>0.5</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E57" s="4">
-        <v>44334</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>8</v>
+        <v>44328</v>
+      </c>
+      <c r="F57" s="24">
+        <v>2</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E58" s="4">
-        <v>44335</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>5</v>
+        <v>44334</v>
+      </c>
+      <c r="F58" s="24">
+        <v>1</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E59" s="4">
-        <v>44337</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>5</v>
+        <v>44335</v>
+      </c>
+      <c r="F59" s="24">
+        <v>2</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E60" s="4">
-        <v>44341</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>8</v>
+        <v>44337</v>
+      </c>
+      <c r="F60" s="24">
+        <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E61" s="4">
-        <v>44344</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>5</v>
+        <v>44341</v>
+      </c>
+      <c r="F61" s="24">
+        <v>1</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E62" s="4">
+        <v>44344</v>
+      </c>
+      <c r="F62" s="24">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E63" s="4">
         <v>44348</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G63"/>
+      <c r="F63" s="24">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G64"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G66"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="26"/>
+      <c r="G65"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="G67"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="G68"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="G69"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="G70"/>
       <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="G71"/>
+      <c r="H71" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B471B-5507-412C-B794-A465C7B4ADA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E094EF9-1514-42C0-B426-9E5F46B5E22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12744" yWindow="3828" windowWidth="17280" windowHeight="8964" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>Lukas Schneider</t>
   </si>
@@ -215,18 +215,6 @@
     <t>Powerup</t>
   </si>
   <si>
-    <t>powerpoint</t>
-  </si>
-  <si>
-    <t>bugs fixen, spiel fertigstellen, power up</t>
-  </si>
-  <si>
-    <t>slowness poison</t>
-  </si>
-  <si>
-    <t>präsentation</t>
-  </si>
-  <si>
     <t xml:space="preserve">2h </t>
   </si>
   <si>
@@ -273,6 +261,15 @@
   </si>
   <si>
     <t>Level2 (Gegner Entwicklung)</t>
+  </si>
+  <si>
+    <t>invisible potion</t>
+  </si>
+  <si>
+    <t>Bugs fixen, Spiel fertigstellen, power up</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
   </si>
 </sst>
 </file>
@@ -280,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="General&quot;h&quot;"/>
+    <numFmt numFmtId="164" formatCode="General&quot;h&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -495,6 +492,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,16 +523,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -842,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="166" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,25 +857,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="E4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -903,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -918,7 +915,7 @@
       <c r="E6" s="10">
         <v>44258</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="17">
         <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -939,13 +936,13 @@
       <c r="E7" s="10">
         <v>44260</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="17">
         <v>0.5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
@@ -963,13 +960,13 @@
       <c r="E8" s="10">
         <v>44260</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="17">
         <v>1.5</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -988,13 +985,13 @@
       <c r="E9" s="10">
         <v>44261</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="17">
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="I9" s="16"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
@@ -1012,7 +1009,7 @@
       <c r="E10" s="12">
         <v>44261</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1036,7 +1033,7 @@
       <c r="E11" s="12">
         <v>44262</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="17">
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -1060,7 +1057,7 @@
       <c r="E12" s="12">
         <v>44262</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="17">
         <v>0.5</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1084,11 +1081,11 @@
       <c r="E13" s="10">
         <v>44264</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="17">
         <v>0.5</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1107,7 +1104,7 @@
       <c r="E14" s="12">
         <v>44264</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="17">
         <v>1.5</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -1130,11 +1127,11 @@
       <c r="E15" s="10">
         <v>44265</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1153,7 +1150,7 @@
       <c r="E16" s="12">
         <v>44265</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="17">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -1176,7 +1173,7 @@
       <c r="E17" s="10">
         <v>44267</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="17">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -1199,7 +1196,7 @@
       <c r="E18" s="12">
         <v>44267</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="17">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -1222,7 +1219,7 @@
       <c r="E19" s="10">
         <v>44271</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="17">
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -1239,11 +1236,11 @@
       <c r="E20" s="10">
         <v>44272</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="17">
         <v>0.5</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1262,11 +1259,11 @@
       <c r="E21" s="10">
         <v>44272</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="17">
         <v>1.5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1285,7 +1282,7 @@
       <c r="E22" s="12">
         <v>44272</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="17">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -1305,7 +1302,7 @@
       <c r="E23" s="10">
         <v>44274</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="17">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -1325,7 +1322,7 @@
       <c r="E24" s="12">
         <v>44274</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="17">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
@@ -1345,7 +1342,7 @@
       <c r="E25" s="10">
         <v>44278</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="17">
         <v>0.5</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -1365,7 +1362,7 @@
       <c r="E26" s="12">
         <v>44278</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="17">
         <v>0.5</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -1385,7 +1382,7 @@
       <c r="E27" s="10">
         <v>44279</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="17">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -1405,7 +1402,7 @@
       <c r="E28" s="12">
         <v>44279</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="17">
         <v>0.5</v>
       </c>
       <c r="G28" s="11" t="s">
@@ -1425,7 +1422,7 @@
       <c r="E29" s="10">
         <v>44281</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="17">
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -1445,7 +1442,7 @@
       <c r="E30" s="12">
         <v>44282</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="17">
         <v>2</v>
       </c>
       <c r="G30" s="11" t="s">
@@ -1465,11 +1462,11 @@
       <c r="E31" s="10">
         <v>44284</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="17">
         <v>0.5</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1485,7 +1482,7 @@
       <c r="E32" s="10">
         <v>44292</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="17">
         <v>1.5</v>
       </c>
       <c r="G32" s="11" t="s">
@@ -1505,7 +1502,7 @@
       <c r="E33" s="12">
         <v>44292</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="17">
         <v>0.5</v>
       </c>
       <c r="G33" s="11" t="s">
@@ -1525,7 +1522,7 @@
       <c r="E34" s="10">
         <v>44293</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="17">
         <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -1545,7 +1542,7 @@
       <c r="E35" s="10">
         <v>44295</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="17">
         <v>2</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -1565,11 +1562,11 @@
       <c r="E36" s="12">
         <v>44295</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="17">
         <v>0.5</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1585,7 +1582,7 @@
       <c r="E37" s="10">
         <v>44299</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="17">
         <v>0.5</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -1605,7 +1602,7 @@
       <c r="E38" s="10">
         <v>44299</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="17">
         <v>0.5</v>
       </c>
       <c r="G38" s="11" t="s">
@@ -1625,7 +1622,7 @@
       <c r="E39" s="10">
         <v>44299</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="17">
         <v>1</v>
       </c>
       <c r="G39" s="11" t="s">
@@ -1645,7 +1642,7 @@
       <c r="E40" s="10">
         <v>44300</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="17">
         <v>1</v>
       </c>
       <c r="G40" s="11" t="s">
@@ -1665,7 +1662,7 @@
       <c r="E41" s="12">
         <v>44300</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="17">
         <v>1</v>
       </c>
       <c r="G41" s="11" t="s">
@@ -1685,7 +1682,7 @@
       <c r="E42" s="12">
         <v>44301</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="17">
         <v>0.5</v>
       </c>
       <c r="G42" s="11" t="s">
@@ -1700,12 +1697,12 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E43" s="12">
         <v>44301</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="17">
         <v>0.5</v>
       </c>
       <c r="G43" s="11" t="s">
@@ -1720,12 +1717,12 @@
         <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E44" s="10">
         <v>44302</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="17">
         <v>0.5</v>
       </c>
       <c r="G44" s="11" t="s">
@@ -1740,16 +1737,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E45" s="12">
         <v>44302</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="17">
         <v>0.5</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1760,16 +1757,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E46" s="12">
         <v>44303</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="17">
         <v>1</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1777,19 +1774,19 @@
         <v>44335</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47" s="12">
         <v>44306</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="17">
         <v>1</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1800,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" s="12">
         <v>44307</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="17">
         <v>2</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1820,16 +1817,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E49" s="4">
         <v>44309</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="17">
         <v>1</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1840,16 +1837,16 @@
         <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" s="4">
         <v>44313</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="17">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1860,23 +1857,23 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E51" s="4">
         <v>44314</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="17">
         <v>2</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52" s="4">
         <v>44316</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="17">
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -1887,7 +1884,7 @@
       <c r="E53" s="4">
         <v>44320</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="17">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -1898,7 +1895,7 @@
       <c r="E54" s="4">
         <v>44321</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="17">
         <v>2</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -1909,7 +1906,7 @@
       <c r="E55" s="12">
         <v>44323</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="17">
         <v>0.5</v>
       </c>
       <c r="G55" s="11" t="s">
@@ -1920,7 +1917,7 @@
       <c r="E56" s="12">
         <v>44327</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="17">
         <v>0.5</v>
       </c>
       <c r="G56" s="11" t="s">
@@ -1931,7 +1928,7 @@
       <c r="E57" s="4">
         <v>44328</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>2</v>
       </c>
       <c r="G57" s="11" t="s">
@@ -1942,7 +1939,7 @@
       <c r="E58" s="4">
         <v>44334</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="17">
         <v>1</v>
       </c>
       <c r="G58" s="11" t="s">
@@ -1953,7 +1950,7 @@
       <c r="E59" s="4">
         <v>44335</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="17">
         <v>2</v>
       </c>
       <c r="G59" s="11" t="s">
@@ -1964,7 +1961,7 @@
       <c r="E60" s="4">
         <v>44337</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="17">
         <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
@@ -1975,7 +1972,7 @@
       <c r="E61" s="4">
         <v>44341</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="17">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="s">
@@ -1986,7 +1983,7 @@
       <c r="E62" s="4">
         <v>44344</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="17">
         <v>1</v>
       </c>
       <c r="G62" s="11" t="s">
@@ -1997,18 +1994,18 @@
       <c r="E63" s="4">
         <v>44348</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="17">
         <v>1</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G64"/>
     </row>
     <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="26"/>
+      <c r="F65" s="19"/>
       <c r="G65"/>
     </row>
     <row r="67" spans="6:8" x14ac:dyDescent="0.3">

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\GitHub\Game-Theorie\Game-Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Github\Game-Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E094EF9-1514-42C0-B426-9E5F46B5E22C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20F87A8-1C70-4525-8D68-3865018B7734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA4D894-2BEC-472E-83A6-8E56EA8FE14E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8045B36-5E30-416E-9E9E-B03750B753D0}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="166" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,9 +1230,15 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4">
+        <v>44279</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="10">
         <v>44272</v>
       </c>
@@ -1248,13 +1254,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>44279</v>
+        <v>44282</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E21" s="10">
         <v>44272</v>
@@ -1277,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="12">
         <v>44272</v>
@@ -1291,13 +1297,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>44282</v>
+        <v>44285</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10">
         <v>44274</v>
@@ -1314,10 +1320,10 @@
         <v>44285</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="12">
         <v>44274</v>
@@ -1331,13 +1337,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>44285</v>
+        <v>44292</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E25" s="10">
         <v>44278</v>
@@ -1354,10 +1360,10 @@
         <v>44292</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E26" s="12">
         <v>44278</v>
@@ -1371,13 +1377,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>44292</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>56</v>
+        <v>44293</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E27" s="10">
         <v>44279</v>
@@ -1391,13 +1397,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>44293</v>
+        <v>44295</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E28" s="12">
         <v>44279</v>
@@ -1411,13 +1417,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>44295</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>44299</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="10">
         <v>44281</v>
@@ -1434,10 +1440,10 @@
         <v>44299</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E30" s="12">
         <v>44282</v>
@@ -1451,13 +1457,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E31" s="10">
         <v>44284</v>
@@ -1471,13 +1477,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E32" s="10">
         <v>44292</v>
@@ -1491,13 +1497,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>44302</v>
+        <v>44306</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="12">
         <v>44292</v>
@@ -1511,13 +1517,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>44306</v>
-      </c>
-      <c r="B34" s="13" t="s">
+        <v>44307</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="10">
         <v>44293</v>
@@ -1537,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="10">
         <v>44295</v>
@@ -1551,13 +1557,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>44307</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>8</v>
+        <v>44312</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E36" s="12">
         <v>44295</v>
@@ -1573,11 +1579,11 @@
       <c r="A37" s="4">
         <v>44312</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>5</v>
+      <c r="B37" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E37" s="10">
         <v>44299</v>
@@ -1597,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="10">
         <v>44299</v>
@@ -1611,13 +1617,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>44312</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>8</v>
+        <v>44313</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E39" s="10">
         <v>44299</v>
@@ -1633,11 +1639,11 @@
       <c r="A40" s="4">
         <v>44313</v>
       </c>
-      <c r="B40" s="7">
-        <v>0.5</v>
+      <c r="B40" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" s="10">
         <v>44300</v>
@@ -1651,13 +1657,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>44313</v>
+        <v>44320</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E41" s="12">
         <v>44300</v>
@@ -1671,13 +1677,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>44320</v>
+        <v>44328</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E42" s="12">
         <v>44301</v>
@@ -1691,13 +1697,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="12">
         <v>44301</v>
@@ -1717,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="10">
         <v>44302</v>
@@ -1731,13 +1737,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44329</v>
+        <v>44334</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E45" s="12">
         <v>44302</v>
@@ -1751,13 +1757,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E46" s="12">
         <v>44303</v>
@@ -1771,13 +1777,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>44335</v>
+        <v>44337</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="12">
         <v>44306</v>
@@ -1791,13 +1797,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>44337</v>
+        <v>44341</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E48" s="12">
         <v>44307</v>
@@ -1811,13 +1817,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>44341</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>44344</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E49" s="4">
         <v>44309</v>
@@ -1831,13 +1837,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>44344</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="4">
         <v>44313</v>
@@ -1850,15 +1856,6 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="E51" s="4">
         <v>44314</v>
       </c>
